--- a/nearestneighbourfinal.xlsx
+++ b/nearestneighbourfinal.xlsx
@@ -364,8 +364,8 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>88.37</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
